--- a/test.xlsx
+++ b/test.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanpro/Dropbox/Equal/git-perdev-dev/equal-survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC28ED3-114C-6A4F-8EDB-A4A8CA9C4766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA9596A-E145-CC4C-B602-63CBFDBBB139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20780" yWindow="5900" windowWidth="38320" windowHeight="16940" xr2:uid="{5AD500CB-09DA-B141-B51A-1B303B1E1454}"/>
+    <workbookView xWindow="23140" yWindow="1700" windowWidth="38320" windowHeight="16940" xr2:uid="{5AD500CB-09DA-B141-B51A-1B303B1E1454}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -564,7 +565,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
